--- a/Parameters/pipeline_parameters.xlsx
+++ b/Parameters/pipeline_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/mans3904_ox_ac_uk/Documents/DPhil/GEOH2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{3B171436-62BC-4C9F-93B1-25FF2C7FBA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2D9C83-7E3F-47DF-B437-73013BF835F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17CB98-0437-854B-8C4B-CA3D4C7F5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
+    <workbookView xWindow="140" yWindow="860" windowWidth="11420" windowHeight="14360" activeTab="3" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -428,21 +428,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0432B26-F3F0-43E1-A0D6-6197719E0B28}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,7 +450,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -466,7 +466,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -474,7 +474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6.1381900000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -490,7 +490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -498,7 +498,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -516,17 +516,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -535,7 +538,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -544,7 +547,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -562,20 +565,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -584,7 +587,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -593,12 +596,12 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -610,30 +613,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13374701-BB04-4EB3-9B4E-2501A6D51514}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <f>1.5 * 1000000</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <f>0.09 * 1000000</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -642,7 +645,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>

--- a/Parameters/pipeline_parameters.xlsx
+++ b/Parameters/pipeline_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/mans3904_ox_ac_uk/Documents/DPhil/GEOH2-private/Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17CB98-0437-854B-8C4B-CA3D4C7F5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0F17CB98-0437-854B-8C4B-CA3D4C7F5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{781A8BF8-3C71-41AD-8549-C21EB804F0B9}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="860" windowWidth="11420" windowHeight="14360" activeTab="3" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -428,21 +428,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0432B26-F3F0-43E1-A0D6-6197719E0B28}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,7 +450,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -466,7 +466,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -474,7 +474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -482,7 +482,7 @@
         <v>6.1381900000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -490,7 +490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -498,7 +498,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -519,17 +519,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -538,7 +538,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -568,17 +568,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -587,7 +587,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -596,7 +596,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -613,21 +613,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13374701-BB04-4EB3-9B4E-2501A6D51514}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +645,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
